--- a/static/temp/КД 03 - 000018048 - 2022 Веб-технологии 13.04.2022 20 23 37.xlsx
+++ b/static/temp/КД 03 - 000018048 - 2022 Веб-технологии 13.04.2022 20 23 37.xlsx
@@ -633,7 +633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1511,6 +1511,13 @@
         </is>
       </c>
       <c r="C50" s="14" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Итого: 240.0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="85">

--- a/static/temp/КД 03 - 000018048 - 2022 Веб-технологии 13.04.2022 20 23 37.xlsx
+++ b/static/temp/КД 03 - 000018048 - 2022 Веб-технологии 13.04.2022 20 23 37.xlsx
@@ -28,11 +28,11 @@
       <sz val="12"/>
     </font>
     <font>
-      <color rgb="00FFFFFF"/>
+      <color rgb="00000000"/>
       <sz val="12"/>
     </font>
     <font>
-      <color rgb="00000000"/>
+      <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
   </fonts>
@@ -45,62 +45,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00574D68"/>
-        <bgColor rgb="00574D68"/>
+        <fgColor rgb="009389a4"/>
+        <bgColor rgb="009389a4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007B2D26"/>
-        <bgColor rgb="007B2D26"/>
+        <fgColor rgb="00b76962"/>
+        <bgColor rgb="00b76962"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000B7A75"/>
-        <bgColor rgb="000B7A75"/>
+        <fgColor rgb="0047b6b1"/>
+        <bgColor rgb="0047b6b1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002AB7CA"/>
-        <bgColor rgb="002AB7CA"/>
+        <fgColor rgb="0066f3ff"/>
+        <bgColor rgb="0066f3ff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FE4A49"/>
-        <bgColor rgb="00FE4A49"/>
+        <fgColor rgb="00ff8685"/>
+        <bgColor rgb="00ff8685"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0084596B"/>
-        <bgColor rgb="0084596B"/>
+        <fgColor rgb="00c095a7"/>
+        <bgColor rgb="00c095a7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0019535F"/>
-        <bgColor rgb="0019535F"/>
+        <fgColor rgb="00558f9b"/>
+        <bgColor rgb="00558f9b"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A38560"/>
-        <bgColor rgb="00A38560"/>
+        <fgColor rgb="00dfc19c"/>
+        <bgColor rgb="00dfc19c"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007EA172"/>
-        <bgColor rgb="007EA172"/>
+        <fgColor rgb="00baddae"/>
+        <bgColor rgb="00baddae"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E7A977"/>
-        <bgColor rgb="00E7A977"/>
+        <fgColor rgb="00ffe5b3"/>
+        <bgColor rgb="00ffe5b3"/>
       </patternFill>
     </fill>
   </fills>
@@ -207,18 +207,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -233,20 +233,20 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -264,7 +264,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
